--- a/Income/TROW_inc.xlsx
+++ b/Income/TROW_inc.xlsx
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.4113</v>
+        <v>0.4143</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0.3717</v>
@@ -2235,7 +2235,7 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.0</v>
+        <v>0.4666</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.4263</v>
@@ -3251,7 +3251,7 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0.0</v>
+        <v>0.4755</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0.4729</v>
@@ -3378,7 +3378,7 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.0</v>
+        <v>0.5012</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0.4609</v>
